--- a/CodeVS/data/output/tugboat_schedule_algorithm_ORDER_22.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ORDER_22.xlsx
@@ -1606,37 +1606,37 @@
     <t>B_016,B_046,B_052,B_024,B_027</t>
   </si>
   <si>
-    <t>{'travel_time': 4.0, 'last_location': (14.4951, 100.625), 'speed': 3.0, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 12.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F87FB590&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F87F8500&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F87FBEF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F87F92E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F87FB140&gt;], 'exit_datetime': datetime.datetime(2025, 9, 30, 20, 0)}</t>
+    <t>{'travel_time': 4.0, 'last_location': (14.4951, 100.625), 'speed': 3.0, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 12.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31EEA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31E7E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31D490&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1C8C50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1CB410&gt;], 'exit_datetime': datetime.datetime(2025, 9, 30, 20, 0)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F8766F90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F8767DA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F8766E70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B6BA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B7BC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B7E30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B4FE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B7560&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EFF20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED2B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EC500&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED4F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EEEA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED010&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EF830&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EEA80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EC9B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EF5F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE060&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EF1D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EDCD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE6F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE120&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EDE50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ECE00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE810&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE540&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EEBD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED610&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED3A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED940&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EF0E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE1B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED6A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED310&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE0C0&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 35)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31C3E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31E150&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31FF20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31E330&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13ECC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13CE90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13F200&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13ECF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13E2A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13F5F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13FEC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13DDF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13CB60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13E6F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13D100&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13E060&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13F410&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13E6C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13EB70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13F950&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13C290&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13FE30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13F8C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13EBD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13D250&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13F350&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13FBF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13F680&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13DD60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13DF70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13C140&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13DE80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13C110&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13D550&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13C650&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13C890&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 35)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F87F8E90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F87F99D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B4F20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B4470&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EFB30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EEC60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EFAA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EECF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EC4A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EF050&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE480&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE5A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE2A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE270&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ECA70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE210&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EEC90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ECE90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EC320&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EC620&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE090&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ECD40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EDFD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EEAE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EC650&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EEE40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EFAD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EF8F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EDF40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ECE60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED280&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EEA50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EC890&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EF7A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EE9F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED970&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 30)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1C9790&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1CBE30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1C8EC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1C9EE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0CB680&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0CB770&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F830&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DF70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DB80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C770&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FCB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CF50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C6B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C200&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E660&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F650&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D250&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FE60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CB30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CB90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D610&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DE80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DE50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F380&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D3D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F440&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E090&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EB10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E780&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C530&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D1C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CD40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E210&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E480&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F5C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FBF0&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 30)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F8767530&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97EF0B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98366F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98342C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834620&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835EE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835730&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837740&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835BE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836CC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837800&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98376B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835BB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835B20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834260&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836B10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835670&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836BA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836570&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98341A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98374A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98342F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837680&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98373E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835160&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836090&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836720&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98347D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835D60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836E70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835CD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98363C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834E60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834CE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834E30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835100&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 30)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0CB050&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1C84D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13D5B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13FC50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FD70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E8A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CA40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E9F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D070&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D0D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FFE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D6D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DCD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CAD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E390&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DAC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D370&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D580&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C4D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EF00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E5D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4ED80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EB70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E2D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DAF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C170&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F6B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F9B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CE60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E900&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C9E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E330&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D490&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F530&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D850&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F7A0&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 30)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B6900&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B5670&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B7E60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836F30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98367B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836ED0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836C00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835190&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837410&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837290&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836BD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837DD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837950&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834920&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836F90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837020&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98379E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834C20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836450&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98358B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98375C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834560&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835D90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834680&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98349E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836690&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837F50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98352B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834B30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835B50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836120&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98340E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98345F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834740&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836000&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98345C0&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 35)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1CB890&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31F980&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31F230&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FF20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F9E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EBD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CB00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D820&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E300&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D4F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D910&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F290&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DD30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F110&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E120&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EAB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F320&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FEC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C5F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CEF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4ED50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F1A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C440&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CC80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C2C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EAE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D700&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CD10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C4A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F7D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D730&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D0A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E4E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D130&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E720&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E030&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 35)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B7110&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98355B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837890&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836B40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834AA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836EA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834F50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98376E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836C30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836420&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834F20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837590&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836750&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837440&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836390&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98348C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835AF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834980&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836780&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835580&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834B00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837230&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835250&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834FB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98350D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834530&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836330&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837260&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835F70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837F80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837350&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837B90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834200&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836300&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837F20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835340&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 30)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31DB20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31EA20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31FA10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C230&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CE90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C800&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DA60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CCE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CA10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F140&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DC40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EDB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F050&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CAA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D400&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EC60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EA50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E5A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FB30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F560&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CD70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C0E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FA10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FFB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D2E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DDC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F170&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C140&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E150&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E990&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DB20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DFA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F680&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E960&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FCE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CDA0&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 30)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B53D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B6A80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837E00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837B60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836540&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834FE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836B70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98362D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98377D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835430&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834A40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834A70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836480&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837BF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836030&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836870&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834320&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836510&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834590&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98375F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98367E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837650&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834A10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98344D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834BF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98377A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836900&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835490&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834AD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834D10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834D40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837500&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835DC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98368A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834950&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F98362A0&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 35)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31F200&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C31F4A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F3E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F500&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CF80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4ED20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E270&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D1F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FC80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C7A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C980&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C380&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DBE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DBB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D9D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D880&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E3C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C290&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EFC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D8E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4EE10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C890&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FB00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DDF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C950&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F4D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E420&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C920&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4FE00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F020&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4E450&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CF20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C590&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C8F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CC20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DCA0&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 35)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97ED550&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96B63F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9834410&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9835310&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9837CE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836AE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723B30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97230E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720860&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720B00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720470&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722DE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723CB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722630&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720170&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723260&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720C20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720800&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97228A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722F30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722D80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720200&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9721310&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723EF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97222D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9721610&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723590&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97221B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97225A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97221E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97210D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723830&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9721D00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9721FA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97239B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722810&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 35)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13D6D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C13D760&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C560&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4C860&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4F770&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4D5B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DC70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DF40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0694C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0693A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0682C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A720&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069FA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069130&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069EB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C068470&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069400&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069490&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A7B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069520&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0691F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BD70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0687A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C068CE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C068860&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BE00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06AAE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A1B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A600&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06B740&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A300&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06ADB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069010&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C068EC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069F70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06AC30&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 35)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9836600&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F8822FF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723950&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97238F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722870&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97202C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723CE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720050&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720680&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723890&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720A70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97231A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9721100&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720650&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722450&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9721DF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720BF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722BA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723B60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720110&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722840&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722F90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723E90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9723EC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97219A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97239E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97203B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722120&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722C00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97205C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9721A00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9720920&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97236B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97201D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97238C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F9722B40&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 30)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4CC50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DB50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF4DC10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A780&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06B6E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069E50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BBF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C068620&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0690A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069A60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069CD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A5D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BA10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BA40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06AD50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06B950&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BF80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06B590&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06AB10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A0C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0689B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BB30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06B3B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C068830&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06B9B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069250&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069A90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06AFC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C068AD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C0690D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C069550&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06A930&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BB90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C068BC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06B7A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C06BBC0&gt;], 'exit_datetime': datetime.datetime(2025, 9, 28, 23, 30)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96D3980&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96D1850&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96D3050&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F88CD4C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F88CEC90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F88CDB50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F88CDD90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F968CB60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884F050&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884DF10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884DCD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C7A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884CCE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884F5C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C6B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884F020&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C680&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884DEB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884F380&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884FE00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884CB60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884D910&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884CAA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884E1E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C2F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884D6A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884F6E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884CE30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884DB20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884F0B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884E180&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884CB00&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884FA40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884FF80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C950&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884ECF0&gt;], 'exit_datetime': datetime.datetime(2025, 10, 4, 3, 30)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF45E50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF44CB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF451F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF45B80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF47FB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF45250&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C1328D0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C133140&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C132270&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F1580&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F1EB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F3620&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0FE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F1280&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0530&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F1520&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F3350&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0DD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F2930&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F2750&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F2630&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F17F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F08F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0230&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0410&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F27E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F3F80&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F3D40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F1A90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F2E70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F38F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F1190&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F2F30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F24E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F05F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F3890&gt;], 'exit_datetime': datetime.datetime(2025, 10, 4, 3, 30)}</t>
   </si>
   <si>
-    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000001E4F86CD580&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96CCAA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F96CC3E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F88CF800&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F88CE990&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C9E0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884EDE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884F560&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884E9C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884F260&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884CDD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C290&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C800&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884D280&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C410&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C350&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884CAD0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884DB50&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884E690&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884D160&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884FB90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884FE90&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884FCE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884E660&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884EE10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884D8B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884E210&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884FEF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F884C8F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97B5D30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97B60C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97B4770&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97B4CE0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97B6000&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97B5100&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97B6720&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001E4F97B7CE0&gt;], 'exit_datetime': datetime.datetime(2025, 10, 3, 21, 15)}</t>
+    <t>{'travel_time': 48.33333333333334, 'last_location': (14.4951, 100.625), 'speed': 2.9999999999999996, 'start_object': &lt;CodeVS.components.customer.Customer object at 0x000002E01BF2F890&gt;, 'travel_distance': 145.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01BF46E10&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C2A17C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0E30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F3650&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F2780&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F2B70&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F00B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F29C0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F3380&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F11F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0440&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0AA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F3410&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0BC0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F0830&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01D1F2C60&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C270DA0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C273B30&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C270230&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C2710A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C271940&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C271BB0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C2707A0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C273C20&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C273470&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C271DF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C2733B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C2711F0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C273170&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C272FF0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C270560&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C2736B0&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C273710&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C270A40&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C273020&gt;, &lt;CodeVS.operations.travel_helper.TravelStep object at 0x000002E01C270CB0&gt;], 'exit_datetime': datetime.datetime(2025, 10, 3, 21, 15)}</t>
   </si>
   <si>
     <t>ST_045</t>
